--- a/product/dist/Ket qua quay li xi.xlsx
+++ b/product/dist/Ket qua quay li xi.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,57 +398,87 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mã đáo thành công</v>
+        <v>92053</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Nguyễn Bá Dương</v>
+      </c>
+      <c r="C3" t="str">
+        <v>P. Golf</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Tiến xuân Quý Mão</v>
+        <v>91818</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nguyễn Hữu Sự</v>
+      </c>
+      <c r="C4" t="str">
+        <v>P. Golf</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Nỗi lo tan biến</v>
+        <v>90986</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nguyễn Vũ Sơn</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Caddy</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>May mắn to to</v>
+        <v>91619</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Phạm Văn Hùng</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Caddy</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Niềm vui nho nhỏ</v>
+        <v>91130</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Hoàng Như Thiện</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Caddy</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>91412</v>
+        <v>90033</v>
       </c>
       <c r="B8" t="str">
-        <v>Nguyễn Trung Chính</v>
+        <v>Lê Thanh Hải</v>
       </c>
       <c r="C8" t="str">
-        <v>Caddy</v>
+        <v>P. Golf</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>90430</v>
+        <v>91135</v>
       </c>
       <c r="B9" t="str">
-        <v>Lê Xuân Trực</v>
+        <v>Nguyễn Tấn Phát</v>
       </c>
       <c r="C9" t="str">
-        <v>P. Golf</v>
+        <v>Caddy</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>91072</v>
+      <c r="A10" t="str">
+        <v>92128</v>
       </c>
       <c r="B10" t="str">
-        <v>Doãn Văn Trung</v>
+        <v>Bùi Lữ Quốc Bảo</v>
       </c>
       <c r="C10" t="str">
         <v>P. Golf</v>
@@ -456,10 +486,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>90466</v>
+        <v>90839</v>
       </c>
       <c r="B11" t="str">
-        <v>Lê Tuấn Anh</v>
+        <v>Trần Hữu Mùi</v>
       </c>
       <c r="C11" t="str">
         <v>P. Golf</v>
@@ -467,21 +497,21 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>91940</v>
+        <v>91598</v>
       </c>
       <c r="B12" t="str">
-        <v>Trương Minh Hiếu</v>
+        <v>Trần Công Trãi</v>
       </c>
       <c r="C12" t="str">
-        <v>P. Golf</v>
+        <v>Caddy</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>91772</v>
+        <v>90838</v>
       </c>
       <c r="B13" t="str">
-        <v>Trần Huy Khánh</v>
+        <v>Nguyễn Văn Thanh</v>
       </c>
       <c r="C13" t="str">
         <v>P. Golf</v>
@@ -489,32 +519,32 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>91917</v>
+        <v>91347</v>
       </c>
       <c r="B14" t="str">
-        <v>Nguyễn Quốc Cường</v>
+        <v>Võ Cao Trí</v>
       </c>
       <c r="C14" t="str">
-        <v>Caddy</v>
+        <v>P. Golf</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>91712</v>
+        <v>91473</v>
       </c>
       <c r="B15" t="str">
-        <v>Hoàng Sơn</v>
+        <v>Dương Anh Kiệt</v>
       </c>
       <c r="C15" t="str">
-        <v>P. Golf</v>
+        <v>Caddy</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>92020</v>
+        <v>80001</v>
       </c>
       <c r="B16" t="str">
-        <v>Siu Khang</v>
+        <v>Dương Quang Huy</v>
       </c>
       <c r="C16" t="str">
         <v>P. Golf</v>
@@ -522,18 +552,3266 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>91243</v>
+        <v>90070</v>
       </c>
       <c r="B17" t="str">
-        <v>Lê Công Trường</v>
+        <v>Nguyễn Ngọc Thanh</v>
       </c>
       <c r="C17" t="str">
         <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>91229</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Dương Hải</v>
+      </c>
+      <c r="C18" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>10261</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Nguyễn Ngọc Thái</v>
+      </c>
+      <c r="C19" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>90693</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Lê Lâm Xuân Thành</v>
+      </c>
+      <c r="C20" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>91147</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Bùi Tấn Linh</v>
+      </c>
+      <c r="C21" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>91345</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Phạm Quang Thập</v>
+      </c>
+      <c r="C22" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>91337</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Hoàng Chí Linh</v>
+      </c>
+      <c r="C23" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>91900</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Nguyễn Hoàng Duy</v>
+      </c>
+      <c r="C24" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>90485</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Nguyễn Phát Đạt</v>
+      </c>
+      <c r="C25" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>91137</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Hồ Xuân Trường</v>
+      </c>
+      <c r="C26" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>92094</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Phan Vân Trường</v>
+      </c>
+      <c r="C27" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>13169</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Nguyễn Hồng Gia Kỳ</v>
+      </c>
+      <c r="C28" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>91388</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Phạm Tấn Hùng</v>
+      </c>
+      <c r="C29" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>90706</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Lê Minh Toàn</v>
+      </c>
+      <c r="C30" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>91940</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Trương Minh Hiếu</v>
+      </c>
+      <c r="C31" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>90513</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Lữ Đình Trung</v>
+      </c>
+      <c r="C32" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>90224</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Đồng Hữu Như</v>
+      </c>
+      <c r="C33" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>90489</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Trương Bảo Kha</v>
+      </c>
+      <c r="C34" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>91653</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Nguyễn Hữu Nghĩa</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>91552</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Trần Văn Phương</v>
+      </c>
+      <c r="C36" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>92012</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Nguyễn Ba Tài</v>
+      </c>
+      <c r="C37" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>90345</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Kiều Huỳnh Bá Ngọc</v>
+      </c>
+      <c r="C38" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>80155</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Nguyễn Tuấn Anh</v>
+      </c>
+      <c r="C39" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>92058</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Cao Quang Linh</v>
+      </c>
+      <c r="C40" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>91902</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Hoàng Anh Tuấn</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>10089</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Vũ Quang Thành</v>
+      </c>
+      <c r="C42" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Mã đáo thành công</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>92108</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Nguyễn Đại Đạo</v>
+      </c>
+      <c r="C44" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Tiến xuân Quý Mão</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>90131</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Nguyễn Phạm Trung</v>
+      </c>
+      <c r="C46" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>90503</v>
+      </c>
+      <c r="B47" t="str">
+        <v xml:space="preserve">Nguyễn Thành Luân </v>
+      </c>
+      <c r="C47" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>10197</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Phạm Đức Anh</v>
+      </c>
+      <c r="C48" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>91348</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Nguyễn Đình Tuấn</v>
+      </c>
+      <c r="C49" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>90493</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Phạm Huy Nghĩa</v>
+      </c>
+      <c r="C50" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Nỗi lo tan biến</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>80056</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Đỗ Ngọc Anh</v>
+      </c>
+      <c r="C52" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>91904</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Nguyễn Đức Mạnh</v>
+      </c>
+      <c r="C53" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>90079</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Trần Anh Đức</v>
+      </c>
+      <c r="C54" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>30004</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Đặng Thị Cúc</v>
+      </c>
+      <c r="C55" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>20007</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Lương Văn Thông</v>
+      </c>
+      <c r="C56" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>91363</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Hoàng Đình Phán</v>
+      </c>
+      <c r="C57" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>91537</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Nguyễn Văn Hiệp</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>91575</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nguyễn Xuân Thắng</v>
+      </c>
+      <c r="C59" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>92078</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Lê Văn Ngọc</v>
+      </c>
+      <c r="C60" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>91800</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Nguyễn Phúc Trình</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>90524</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Văn Vĩnh Tiến</v>
+      </c>
+      <c r="C62" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>90435</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Lê Văn Thế</v>
+      </c>
+      <c r="C63" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>90475</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Bùi Viết Thắng</v>
+      </c>
+      <c r="C64" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>91828</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Trần Duy Quang</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>80122</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Võ Đại Phước Hạnh</v>
+      </c>
+      <c r="C66" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>92050</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Hồ Minh Quân</v>
+      </c>
+      <c r="C67" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>91636</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Nguyễn Thanh Nhanh</v>
+      </c>
+      <c r="C68" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>91172</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Hoàng Minh Tâm</v>
+      </c>
+      <c r="C69" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>91454</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Trần Trọng Luân</v>
+      </c>
+      <c r="C70" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70652</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Nguyễn Minh Khánh</v>
+      </c>
+      <c r="C71" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>92044</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Nguyễn Minh Trọng</v>
+      </c>
+      <c r="C72" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>90934</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Đoàn Minh Khoa</v>
+      </c>
+      <c r="C73" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>91111</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Trần Nguyễn Anh Huy</v>
+      </c>
+      <c r="C74" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>91216</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Phạm Hữu Thạnh</v>
+      </c>
+      <c r="C75" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>40000</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Trần Minh Phước</v>
+      </c>
+      <c r="C76" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>92104</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Nguyễn Bá Đức</v>
+      </c>
+      <c r="C77" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>90008</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Lương Khánh Tân</v>
+      </c>
+      <c r="C78" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>92119</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Lê Thế Phú</v>
+      </c>
+      <c r="C79" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>91859</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Nguyễn Văn Đông</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>90569</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Đoàn Xuân Lung</v>
+      </c>
+      <c r="C81" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>May mắn to to</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>91657</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Nguyễn Văn Hoài</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>92095</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Tạ Đăng Hải</v>
+      </c>
+      <c r="C84" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>90970</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Lưu Văn Lâm</v>
+      </c>
+      <c r="C85" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>92123</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Lê Đình Tú</v>
+      </c>
+      <c r="C86" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>90995</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Nguyễn Trương Phương Vũ</v>
+      </c>
+      <c r="C87" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>90468</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Đoàn Tử Tranh</v>
+      </c>
+      <c r="C88" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>91622</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Từ Phương Sang</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>10041</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Lâm Văn Tài</v>
+      </c>
+      <c r="C90" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>30061</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Nguyễn Thị Tiểu Phụng</v>
+      </c>
+      <c r="C91" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>10066</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Trần Giang Quân</v>
+      </c>
+      <c r="C92" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>91771</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Ngô Minh Dương</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>92106</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Bùi Văn Sang</v>
+      </c>
+      <c r="C94" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>91887</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Phùng Thanh Sơn</v>
+      </c>
+      <c r="C95" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>91467</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Nguyễn Hoàn Quân</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>91849</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Nguyễn Văn Cường</v>
+      </c>
+      <c r="C97" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>91512</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Nguyễn Tuấn Khang</v>
+      </c>
+      <c r="C98" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>91037</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Nguyễn Anh Khoa</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>92057</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Phan Thành Mỹ</v>
+      </c>
+      <c r="C100" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>91599</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Nguyễn Viết Tài</v>
+      </c>
+      <c r="C101" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>10274</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Nguyễn Thị Thanh Hiền</v>
+      </c>
+      <c r="C102" t="str">
+        <v>P.NS</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>90552</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Lê Duy Phương</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>91374</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Mai Vũ Hải</v>
+      </c>
+      <c r="C104" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>91798</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Đoàn Phan Cao Quý</v>
+      </c>
+      <c r="C105" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>10317</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Huỳnh Thị Huyền Trang</v>
+      </c>
+      <c r="C106" t="str">
+        <v>P.NS</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>90300</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Nguyễn Trọng Toàn</v>
+      </c>
+      <c r="C107" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>91425</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Bùi Tấn Quỳnh</v>
+      </c>
+      <c r="C108" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>91113</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Huỳnh Ngọc Sâm</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>91459</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Lê Hồng Sơn</v>
+      </c>
+      <c r="C110" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>92115</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Võ Văn Phút</v>
+      </c>
+      <c r="C111" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>91844</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Nguyễn Đăng Trường</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>91486</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Hoàng Văn Thông</v>
+      </c>
+      <c r="C113" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>91307</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Trần Đình Anh Khoa</v>
+      </c>
+      <c r="C114" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>90967</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Đỗ Hoàng Thiện</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>91226</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Võ Thanh Sang</v>
+      </c>
+      <c r="C116" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>91946</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Trần Đức Phát</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>10295</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Đinh Trung Kiên</v>
+      </c>
+      <c r="C118" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>91772</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Trần Huy Khánh</v>
+      </c>
+      <c r="C119" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>80168</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Quách Kỳ Sơn</v>
+      </c>
+      <c r="C120" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>91440</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Lê Viết Hiền</v>
+      </c>
+      <c r="C121" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>80178</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Nguyễn Văn Phú</v>
+      </c>
+      <c r="C122" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>91323</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Mạc Tấn Nguyên</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>92042</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Nguyễn Xuân Khánh</v>
+      </c>
+      <c r="C124" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>91405</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Nguyễn Văn Diện</v>
+      </c>
+      <c r="C125" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>91334</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Nguyễn Hoài Thanh</v>
+      </c>
+      <c r="C126" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>91621</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Nguyễn Hoài Phong</v>
+      </c>
+      <c r="C127" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>70203</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Nguyễn Thị Thúy</v>
+      </c>
+      <c r="C128" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>90633</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Tăng Xuân Hiển</v>
+      </c>
+      <c r="C129" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>90999</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Nguyễn Văn Dân</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>90690</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Nguyễn Quốc Toản</v>
+      </c>
+      <c r="C131" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>10011</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Hồ Thị Phương Thúy</v>
+      </c>
+      <c r="C132" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>91988</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Phạm Thế Vinh</v>
+      </c>
+      <c r="C133" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>90823</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Nguyễn Công Hòa</v>
+      </c>
+      <c r="C134" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>92109</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Phạm Ngọc Sơn</v>
+      </c>
+      <c r="C135" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>91284</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Nguyễn Vĩnh Thụy</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>91434</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Huỳnh Trúc Phương</v>
+      </c>
+      <c r="C137" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>90307</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Nguyễn Tấn Lộc</v>
+      </c>
+      <c r="C138" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>90150</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Lâm Minh Phát</v>
+      </c>
+      <c r="C139" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>91365</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Nguyễn Hoàng Đức</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>90433</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Trương Hồng Phi</v>
+      </c>
+      <c r="C141" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>90209</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Vũ Tấn Lộc</v>
+      </c>
+      <c r="C142" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>90638</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Lê Kim Đức</v>
+      </c>
+      <c r="C143" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>92026</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Trần Hoàng Anh</v>
+      </c>
+      <c r="C144" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>90241</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Nguyễn Thanh Dũng</v>
+      </c>
+      <c r="C145" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>91758</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Phạm Nguyễn Thiện Quang</v>
+      </c>
+      <c r="C146" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>90123</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Dương Lưu Ngọc Thịnh</v>
+      </c>
+      <c r="C147" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>90386</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Trần Văn Quang</v>
+      </c>
+      <c r="C148" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>60077</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Huỳnh Văn Sơn</v>
+      </c>
+      <c r="C149" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>90614</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Lê Nhất Sơn</v>
+      </c>
+      <c r="C150" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>30076</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Đặng Thị Kim Mơ</v>
+      </c>
+      <c r="C151" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>92102</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Trương Hoài An</v>
+      </c>
+      <c r="C152" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>91639</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Trương Ngọc Liêm</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>90845</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Mai Đình Tiến</v>
+      </c>
+      <c r="C154" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>90852</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Trần Ngọc Hiếu</v>
+      </c>
+      <c r="C155" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>91963</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Bùi Nhơn Tiến</v>
+      </c>
+      <c r="C156" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>91521</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Hoàng Quang Hiền</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>91412</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Nguyễn Trung Chính</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>40068</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Cao Hoàng Bảo Ân</v>
+      </c>
+      <c r="C159" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>91530</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Nguyễn Thanh Bình</v>
+      </c>
+      <c r="C160" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>90937</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Nguyễn Hoàng Châu</v>
+      </c>
+      <c r="C161" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>30022</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Diệp Thị Kim Ngân</v>
+      </c>
+      <c r="C162" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>80085</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Đặng Thị Đào</v>
+      </c>
+      <c r="C163" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>91488</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Hồ Phúc Viễn</v>
+      </c>
+      <c r="C164" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>70036</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Hồ Ngọc Long</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>92124</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Nguyễn Đăng Quang</v>
+      </c>
+      <c r="C166" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>91712</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Hoàng Sơn</v>
+      </c>
+      <c r="C167" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>90203</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Trần Anh Tuấn</v>
+      </c>
+      <c r="C168" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>91819</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Đinh Gia Huy</v>
+      </c>
+      <c r="C169" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>91336</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Nguyễn Trọng Xinh</v>
+      </c>
+      <c r="C170" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>90046</v>
+      </c>
+      <c r="B171" t="str">
+        <v xml:space="preserve">Nguyễn Tấn Tài </v>
+      </c>
+      <c r="C171" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>10260</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Nguyễn Văn Vịnh</v>
+      </c>
+      <c r="C172" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Niềm vui nho nhỏ</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>91325</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Hoàng Quốc Khánh</v>
+      </c>
+      <c r="C174" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>91954</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Trương Phi Nam</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>90630</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Nguyễn Mạnh Huy</v>
+      </c>
+      <c r="C176" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>92129</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Nguyễn Đăng Hoàng Nam</v>
+      </c>
+      <c r="C177" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>91773</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Nguyễn Hoàng Long</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>92089</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Nguyễn Như Ý</v>
+      </c>
+      <c r="C179" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>90213</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Dương Minh Hải</v>
+      </c>
+      <c r="C180" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>90156</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Nguyễn Khánh</v>
+      </c>
+      <c r="C181" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>10304</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Lê Minh Hùng</v>
+      </c>
+      <c r="C182" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>92125</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Nguyễn Văn Phùng</v>
+      </c>
+      <c r="C183" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>10015</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Phạm Văn Nghệ</v>
+      </c>
+      <c r="C184" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>91853</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Đường Huy Hưởng</v>
+      </c>
+      <c r="C185" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>10331</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Nguyễn Thế Sang</v>
+      </c>
+      <c r="C186" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>91534</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Hoàng Văn Xuân</v>
+      </c>
+      <c r="C187" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>91144</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Nguyễn Xuân Phúc</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>91965</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Trần Minh Cảnh</v>
+      </c>
+      <c r="C189" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>80030</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Đỗ Duy Khánh</v>
+      </c>
+      <c r="C190" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>80033</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Nguyễn Văn Thứ</v>
+      </c>
+      <c r="C191" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>10327</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Trần Duy Khương</v>
+      </c>
+      <c r="C192" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>91873</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Lâm Trung Hậu</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>50002</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Lê Thị Thanh Tuyền</v>
+      </c>
+      <c r="C194" t="str">
+        <v>P. CƯ</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>20015</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Nguyễn Thanh Triều</v>
+      </c>
+      <c r="C195" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>40017</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Nguyễn Thị Hương</v>
+      </c>
+      <c r="C196" t="str">
+        <v>P. CƯ</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>20011</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Nguyễn Thanh Quang</v>
+      </c>
+      <c r="C197" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>91203</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Nguyễn Tiến Quân</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>90270</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Nguyễn Việt Hà</v>
+      </c>
+      <c r="C199" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>91198</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Huỳnh Minh Tuấn</v>
+      </c>
+      <c r="C200" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>70111</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Dương Thị Hạnh</v>
+      </c>
+      <c r="C201" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>90191</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Hoàng Đức Trí</v>
+      </c>
+      <c r="C202" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>91858</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Nguyễn Hoàng Long</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>91744</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Nguyễn Văn Pháp</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>70161</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Lữ Thị Mến</v>
+      </c>
+      <c r="C205" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>30077</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Nguyễn Thị Thanh Trang</v>
+      </c>
+      <c r="C206" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>90754</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Phạm Quang Đại</v>
+      </c>
+      <c r="C207" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>90178</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Dương Hoàng Mỹ</v>
+      </c>
+      <c r="C208" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>90404</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Hoàng Văn Chiến</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>91678</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Nguyễn Hữu Luân</v>
+      </c>
+      <c r="C210" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>90563</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Võ Văn Thảnh</v>
+      </c>
+      <c r="C211" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>91670</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Nguyễn Viết Thạch</v>
+      </c>
+      <c r="C212" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>92131</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Đặng Bảo An</v>
+      </c>
+      <c r="C213" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>91091</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Hoàng Minh Tài</v>
+      </c>
+      <c r="C214" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>91629</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Nguyễn Đức Sinh</v>
+      </c>
+      <c r="C215" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>91500</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Huỳnh Thanh Tú</v>
+      </c>
+      <c r="C216" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>91814</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Đoàn Xuân Dư</v>
+      </c>
+      <c r="C217" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>30072</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Nguyễn Bá Hùng</v>
+      </c>
+      <c r="C218" t="str">
+        <v>P. CƯ</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>91770</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Trịnh Ngọc Hưng</v>
+      </c>
+      <c r="C219" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>91713</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Nguyễn Văn Trọng</v>
+      </c>
+      <c r="C220" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>10281</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Đào Xuân Trung</v>
+      </c>
+      <c r="C221" t="str">
+        <v>P.NS</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>90077</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Huỳnh Nguyễn Kính</v>
+      </c>
+      <c r="C222" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>70313</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Nguyễn Thị Tú Uyên</v>
+      </c>
+      <c r="C223" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>90978</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Phạm Văn Kiên</v>
+      </c>
+      <c r="C224" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>90861</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Lê Ích Được</v>
+      </c>
+      <c r="C225" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>91799</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Trương Minh Nhựt</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>20018</v>
+      </c>
+      <c r="B227" t="str">
+        <v xml:space="preserve">Nguyễn Văn Sang </v>
+      </c>
+      <c r="C227" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>91862</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Phạm Ngọc Hoàng Huy</v>
+      </c>
+      <c r="C228" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>91813</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Lê Trường Duy</v>
+      </c>
+      <c r="C229" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>92020</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Siu Khang</v>
+      </c>
+      <c r="C230" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>91865</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Võ Hoài Phúc</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>91140</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Trần Ngọc Anh Khoa</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>10136</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Lê Văn Tường</v>
+      </c>
+      <c r="C233" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>92138</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Nguyễn Phước Sang</v>
+      </c>
+      <c r="C234" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>91748</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Vũ Ngọc Thịnh</v>
+      </c>
+      <c r="C235" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>91508</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Nguyễn Hoàng Lộc</v>
+      </c>
+      <c r="C236" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>90827</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Ngô Công Nam</v>
+      </c>
+      <c r="C237" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>91456</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Trần Đăng Khoa</v>
+      </c>
+      <c r="C238" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>91210</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Vũ Mạnh Tuấn</v>
+      </c>
+      <c r="C239" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>91868</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Nguyễn Đức Phong</v>
+      </c>
+      <c r="C240" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>10198</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Nguyễn Xuân Hải</v>
+      </c>
+      <c r="C241" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>90602</v>
+      </c>
+      <c r="B242" t="str">
+        <v xml:space="preserve">Nguyễn Anh Khoa </v>
+      </c>
+      <c r="C242" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>92011</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Phan Quốc Bảo</v>
+      </c>
+      <c r="C243" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>90018</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Phan Chí Thanh</v>
+      </c>
+      <c r="C244" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>60112</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Trần Ngọc Hà</v>
+      </c>
+      <c r="C245" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>90035</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Nguyễn Văn Đông</v>
+      </c>
+      <c r="C246" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>90717</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Lê Ích Bôn</v>
+      </c>
+      <c r="C247" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>50005</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Nguyễn Văn Thuân</v>
+      </c>
+      <c r="C248" t="str">
+        <v>P. CƯ</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>90288</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Nguyễn Chí Hậu</v>
+      </c>
+      <c r="C249" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>10252</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Lã Thanh Phác</v>
+      </c>
+      <c r="C250" t="str">
+        <v>P. IT</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>91735</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Đặng Hóa</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>91895</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Lê Nguyễn Tấn Tài</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>92045</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Nguyễn Lê Minh Quân</v>
+      </c>
+      <c r="C253" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>91648</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Vương Đình Thống</v>
+      </c>
+      <c r="C254" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>80010</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Đặng Thanh Hòa</v>
+      </c>
+      <c r="C255" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>90606</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Phạm Ngọc Hòa</v>
+      </c>
+      <c r="C256" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>90184</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Lý Minh Tân</v>
+      </c>
+      <c r="C257" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>70024</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Đoàn Thị Tiến</v>
+      </c>
+      <c r="C258" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>91385</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Lương Văn Trường</v>
+      </c>
+      <c r="C259" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>90996</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Nguyễn Bá Thìn</v>
+      </c>
+      <c r="C260" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>91339</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Cao Hoàng Trọng</v>
+      </c>
+      <c r="C261" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>30078</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Tiêu Thị Kim Anh</v>
+      </c>
+      <c r="C262" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>90200</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Trần Cao Nguyên</v>
+      </c>
+      <c r="C263" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>91936</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Trương Văn Quân</v>
+      </c>
+      <c r="C264" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>91750</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Nguyễn Chơn Thiên Ân</v>
+      </c>
+      <c r="C265" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>91151</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Lê Văn Bình</v>
+      </c>
+      <c r="C266" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>80006</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Lương Công Lộc</v>
+      </c>
+      <c r="C267" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>91487</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Nguyễn Văn Cường</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>90117</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Lê Duy Phong</v>
+      </c>
+      <c r="C269" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>70040</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Lê Nguyễn Ngọc Trân</v>
+      </c>
+      <c r="C270" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>90701</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Nguyễn Tuấn Thanh</v>
+      </c>
+      <c r="C271" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>91245</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Trương Hoàng Tuấn</v>
+      </c>
+      <c r="C272" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>92134</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Nguyễn Duy Khang</v>
+      </c>
+      <c r="C273" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>90954</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Trần Nhật Thanh</v>
+      </c>
+      <c r="C274" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>92100</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Võ Văn Hão</v>
+      </c>
+      <c r="C275" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>92082</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Nguyễn Dương Minh Tâm</v>
+      </c>
+      <c r="C276" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>91538</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Lê Văn Bắc</v>
+      </c>
+      <c r="C277" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>90107</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Trần Văn Thịnh</v>
+      </c>
+      <c r="C278" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>91350</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Trần Ngọc Đạt</v>
+      </c>
+      <c r="C279" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>90988</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Nguyễn Đỗ Thành Nhân</v>
+      </c>
+      <c r="C280" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>90472</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Lương Quang Tiền</v>
+      </c>
+      <c r="C281" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>10022</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Đỗ Quốc Nam</v>
+      </c>
+      <c r="C282" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>20014</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Huỳnh Quốc Dũng</v>
+      </c>
+      <c r="C283" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>91731</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Nguyễn Tấn Thành</v>
+      </c>
+      <c r="C284" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>90761</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Dương Quang Trung</v>
+      </c>
+      <c r="C285" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>91466</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Phạm Quang Hồng</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>92000</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Hồ Duy Dũng</v>
+      </c>
+      <c r="C287" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>92118</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Phan Đức Tài</v>
+      </c>
+      <c r="C288" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>91505</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Phạm Văn Thắng</v>
+      </c>
+      <c r="C289" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>10318</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Nguyễn Mạnh Hiếu</v>
+      </c>
+      <c r="C290" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>91338</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Nguyễn Quang Duy</v>
+      </c>
+      <c r="C291" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>90362</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Nguyễn Trọng Tín</v>
+      </c>
+      <c r="C292" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>90679</v>
+      </c>
+      <c r="B293" t="str">
+        <v xml:space="preserve">Trần Quang </v>
+      </c>
+      <c r="C293" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>91423</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Hồ Đắc Tài</v>
+      </c>
+      <c r="C294" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>30081</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Dương Thị Minh</v>
+      </c>
+      <c r="C295" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>90915</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Nguyễn Thành Công</v>
+      </c>
+      <c r="C296" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>80009</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Phạm Hòa Bình</v>
+      </c>
+      <c r="C297" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>90182</v>
+      </c>
+      <c r="B298" t="str">
+        <v>Bùi Văn Hiếu</v>
+      </c>
+      <c r="C298" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>90612</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Lê Nguyễn Minh Hoàng</v>
+      </c>
+      <c r="C299" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>91517</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Hồ Lữa</v>
+      </c>
+      <c r="C300" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>90851</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Trần Minh Khanh</v>
+      </c>
+      <c r="C301" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>90019</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Nguyễn Đức Trạng</v>
+      </c>
+      <c r="C302" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>90834</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Đinh Văn Tú</v>
+      </c>
+      <c r="C303" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>10319</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Phùng Minh Đức</v>
+      </c>
+      <c r="C304" t="str">
+        <v>P. IT</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>92135</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Lương Viết Đức</v>
+      </c>
+      <c r="C305" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>92024</v>
+      </c>
+      <c r="B306" t="str">
+        <v>Đinh Văn Quang</v>
+      </c>
+      <c r="C306" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>91952</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Lê Hồng Nhật</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Caddy</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>92068</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Đinh Nhựt Phương Tuấn</v>
+      </c>
+      <c r="C308" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>70021</v>
+      </c>
+      <c r="B309" t="str">
+        <v>Nguyễn Lê Bảo Hân</v>
+      </c>
+      <c r="C309" t="str">
+        <v>P. KT</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>10182</v>
+      </c>
+      <c r="B310" t="str">
+        <v>Lê Văn Nam</v>
+      </c>
+      <c r="C310" t="str">
+        <v>P. HC</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>91344</v>
+      </c>
+      <c r="B311" t="str">
+        <v>Võ Văn Tâm</v>
+      </c>
+      <c r="C311" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>80177</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Nguyễn Thị Tuyết</v>
+      </c>
+      <c r="C312" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>91421</v>
+      </c>
+      <c r="B313" t="str">
+        <v>Nguyễn Tuấn Đạt</v>
+      </c>
+      <c r="C313" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>91620</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Đinh Quốc Cường</v>
+      </c>
+      <c r="C314" t="str">
+        <v>P. Golf</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>91129</v>
+      </c>
+      <c r="B315" t="str">
+        <v>Nguyễn Hoài Khương</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Caddy</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C315"/>
   </ignoredErrors>
 </worksheet>
 </file>